--- a/obliczenia_faktury/20241005_TAXXO_verified.xlsx
+++ b/obliczenia_faktury/20241005_TAXXO_verified.xlsx
@@ -7051,7 +7051,7 @@
         <v>74</v>
       </c>
       <c r="L136" s="4">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="M136" s="4">
         <v>0</v>
@@ -8563,7 +8563,7 @@
         <v>386</v>
       </c>
       <c r="L174" s="4">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="M174" s="4">
         <v>1</v>
@@ -10569,7 +10569,7 @@
         <v>495</v>
       </c>
       <c r="L226" s="4">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="M226" s="4">
         <v>0</v>
@@ -11753,7 +11753,7 @@
         <v>190</v>
       </c>
       <c r="L256" s="4">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="M256" s="4">
         <v>0</v>
